--- a/data_output/prism_passive/all_passive_out_licht_fas_length_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_length_GM_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,133 +513,133 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>63.950224931653672</v>
+        <v>63.950224921238771</v>
       </c>
       <c r="C2">
-        <v>67.652043901365445</v>
+        <v>67.652043882723632</v>
       </c>
       <c r="D2">
-        <v>55.915425988687502</v>
+        <v>55.915425957918053</v>
       </c>
       <c r="E2">
-        <v>70.568530323260632</v>
+        <v>70.568530314463146</v>
       </c>
       <c r="F2">
-        <v>44.830944827606345</v>
+        <v>44.830944818074272</v>
       </c>
       <c r="G2">
-        <v>57.009198655843058</v>
+        <v>57.009198658692405</v>
       </c>
       <c r="H2">
-        <v>49.791028406746825</v>
+        <v>49.791028389746437</v>
       </c>
       <c r="I2">
-        <v>60.024056103527023</v>
+        <v>60.024056110484679</v>
       </c>
       <c r="J2">
-        <v>69.336164975061507</v>
+        <v>69.336164947728662</v>
       </c>
       <c r="K2">
-        <v>55.653879492042861</v>
+        <v>55.65387949809439</v>
       </c>
       <c r="L2">
-        <v>55.376666212917968</v>
+        <v>55.376666198434961</v>
       </c>
       <c r="N2">
-        <v>62.799771465307956</v>
+        <v>62.799771463454491</v>
       </c>
       <c r="O2">
-        <v>49.062128866552833</v>
+        <v>49.062128841075321</v>
       </c>
       <c r="P2">
-        <v>61.776251243803991</v>
+        <v>61.776251229370672</v>
       </c>
       <c r="Q2">
-        <v>63.063852734628441</v>
+        <v>63.063852701031266</v>
       </c>
       <c r="S2">
-        <v>84.083353307694239</v>
+        <v>84.08335315409434</v>
       </c>
       <c r="V2">
-        <v>52.498629146736043</v>
+        <v>52.498629121002708</v>
       </c>
       <c r="W2">
-        <v>45.702233364295907</v>
+        <v>45.702233348967496</v>
       </c>
       <c r="X2">
-        <v>57.720288733852314</v>
+        <v>57.720288711791902</v>
       </c>
       <c r="AA2">
-        <v>70.737322643729897</v>
+        <v>70.737322610092292</v>
       </c>
       <c r="AB2">
-        <v>75.297148419794254</v>
+        <v>75.297148359959607</v>
       </c>
       <c r="AC2">
-        <v>51.912068114460133</v>
+        <v>51.912068120850975</v>
       </c>
       <c r="AD2">
-        <v>74.540443855107583</v>
+        <v>74.540443790468601</v>
       </c>
       <c r="AE2">
-        <v>51.430712889144743</v>
+        <v>51.430712887876354</v>
       </c>
       <c r="AF2">
-        <v>61.118258145425784</v>
+        <v>61.11825813858681</v>
       </c>
       <c r="AG2">
-        <v>52.230534270559609</v>
+        <v>52.230534244211427</v>
       </c>
       <c r="AH2">
-        <v>63.682380936645103</v>
+        <v>63.682380892209515</v>
       </c>
       <c r="AI2">
-        <v>77.789026792126364</v>
+        <v>77.789026723122987</v>
       </c>
       <c r="AJ2">
-        <v>57.154867942706623</v>
+        <v>57.154867939961285</v>
       </c>
       <c r="AK2">
-        <v>59.29652250087792</v>
+        <v>59.296522472686966</v>
       </c>
       <c r="AL2">
-        <v>70.345231184938299</v>
+        <v>70.345231157159759</v>
       </c>
       <c r="AM2">
-        <v>64.529399332869843</v>
+        <v>64.529399275861493</v>
       </c>
       <c r="AN2">
-        <v>52.205685765330955</v>
+        <v>52.205685730939273</v>
       </c>
       <c r="AO2">
-        <v>69.138586484134763</v>
+        <v>69.138586427331063</v>
       </c>
       <c r="AP2">
-        <v>69.080034329946727</v>
+        <v>69.080034306204652</v>
       </c>
       <c r="AQ2">
-        <v>57.786197217948647</v>
+        <v>57.78619717019599</v>
       </c>
       <c r="AR2">
-        <v>83.449730435584939</v>
+        <v>83.449730441151175</v>
       </c>
       <c r="AS2">
-        <v>68.976929908088351</v>
+        <v>68.976929851956498</v>
       </c>
       <c r="AU2">
-        <v>59.226232823262102</v>
+        <v>59.226232794159174</v>
       </c>
       <c r="AV2">
-        <v>53.405137672615403</v>
+        <v>53.405137608514437</v>
       </c>
       <c r="AW2">
-        <v>57.955862299955719</v>
+        <v>57.95586226255805</v>
       </c>
       <c r="AX2">
-        <v>66.992694165800458</v>
+        <v>66.992694138867478</v>
       </c>
       <c r="AY2">
-        <v>69.633492637096282</v>
+        <v>69.633492590170789</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -652,121 +647,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>67.196293863718751</v>
+        <v>67.196293832911152</v>
       </c>
       <c r="C3">
-        <v>60.989356052740995</v>
+        <v>60.98935601669497</v>
       </c>
       <c r="E3">
-        <v>65.777494382887483</v>
+        <v>65.7774943674643</v>
       </c>
       <c r="F3">
-        <v>44.079999015751447</v>
+        <v>44.079998997300834</v>
       </c>
       <c r="G3">
-        <v>61.269311958956578</v>
+        <v>61.269311939869027</v>
       </c>
       <c r="H3">
-        <v>45.084756102336769</v>
+        <v>45.084756093184836</v>
       </c>
       <c r="J3">
-        <v>73.791394155100534</v>
+        <v>73.791394100058298</v>
       </c>
       <c r="K3">
-        <v>66.853933803749996</v>
+        <v>66.853933786882692</v>
       </c>
       <c r="L3">
-        <v>59.460260702889826</v>
+        <v>59.460260661403524</v>
       </c>
       <c r="M3">
-        <v>67.555234370474736</v>
+        <v>67.555092719732741</v>
       </c>
       <c r="N3">
-        <v>64.289744782999549</v>
+        <v>64.28974475450562</v>
       </c>
       <c r="P3">
-        <v>65.118672156609534</v>
+        <v>65.118672100261762</v>
       </c>
       <c r="Q3">
-        <v>56.504916694675828</v>
+        <v>56.504916667876543</v>
       </c>
       <c r="R3">
-        <v>48.282428870834721</v>
+        <v>48.282428813418115</v>
       </c>
       <c r="W3">
-        <v>52.357973774048759</v>
+        <v>52.357973726813839</v>
       </c>
       <c r="AA3">
-        <v>71.12225606540423</v>
+        <v>71.122256025006124</v>
       </c>
       <c r="AB3">
-        <v>68.16612032892229</v>
+        <v>68.166120291169733</v>
       </c>
       <c r="AC3">
-        <v>58.493032380348296</v>
+        <v>58.493032370376255</v>
       </c>
       <c r="AD3">
-        <v>75.197342605750833</v>
+        <v>75.19734258181694</v>
       </c>
       <c r="AE3">
-        <v>53.269838103045586</v>
+        <v>53.269838093752895</v>
       </c>
       <c r="AF3">
-        <v>63.446448317618611</v>
+        <v>63.44644829088314</v>
       </c>
       <c r="AG3">
-        <v>54.155745356883109</v>
+        <v>54.155745321905577</v>
       </c>
       <c r="AH3">
-        <v>70.047451437237598</v>
+        <v>70.047451391507224</v>
       </c>
       <c r="AI3">
-        <v>93.146038387294467</v>
+        <v>93.146038382305889</v>
       </c>
       <c r="AJ3">
-        <v>60.344992611121903</v>
+        <v>60.344992575380743</v>
       </c>
       <c r="AK3">
-        <v>65.568011209672846</v>
+        <v>65.568011182501834</v>
       </c>
       <c r="AL3">
-        <v>70.079805825395695</v>
+        <v>70.07980577263433</v>
       </c>
       <c r="AM3">
-        <v>70.480641935074715</v>
+        <v>70.480641863599658</v>
       </c>
       <c r="AN3">
-        <v>46.029824067965791</v>
+        <v>46.029824040905524</v>
       </c>
       <c r="AO3">
-        <v>70.254070013499145</v>
+        <v>70.254069984896105</v>
       </c>
       <c r="AP3">
-        <v>58.039816154762732</v>
+        <v>58.039816122389119</v>
       </c>
       <c r="AQ3">
-        <v>55.757405527454104</v>
+        <v>55.757405493941121</v>
       </c>
       <c r="AS3">
-        <v>63.013781331034892</v>
+        <v>63.013781318599328</v>
       </c>
       <c r="AT3">
-        <v>67.563144428205689</v>
+        <v>67.563144389580415</v>
       </c>
       <c r="AU3">
-        <v>58.024134192626413</v>
+        <v>58.024134169921652</v>
       </c>
       <c r="AV3">
-        <v>51.235931341601557</v>
+        <v>51.235931311670036</v>
       </c>
       <c r="AW3">
-        <v>55.460487109311757</v>
+        <v>55.46048707951266</v>
       </c>
       <c r="AX3">
-        <v>62.588872688402432</v>
+        <v>62.588872653167243</v>
       </c>
       <c r="AY3">
-        <v>77.09001427077051</v>
+        <v>77.090014224509488</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_licht_fas_length_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_length_GM_submax_1.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,56 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>63.950224921238771</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>67.652043882723632</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>55.915425957918053</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>70.568530314463146</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>44.830944818074272</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>57.009198658692405</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>49.791028389746437</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>60.024056110484679</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>69.336164947728662</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>55.65387949809439</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>55.376666198434961</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>62.799771463454491</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>49.062128841075321</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>61.776251229370672</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>63.063852701031266</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>84.08335315409434</v>
+        <v>76.512638354785253</v>
       </c>
       <c r="V2">
         <v>52.498629121002708</v>
@@ -570,55 +465,55 @@
         <v>57.720288711791902</v>
       </c>
       <c r="AA2">
-        <v>70.737322610092292</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>75.297148359959607</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>51.912068120850975</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>74.540443790468601</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>51.430712887876354</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>61.11825813858681</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>52.230534244211427</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>63.682380892209515</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>77.789026723122987</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>57.154867939961285</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>59.296522472686966</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>70.345231157159759</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>64.529399275861493</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>52.205685730939273</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>69.138586427331063</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>69.080034306204652</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>57.78619717019599</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>83.449730441151175</v>
@@ -643,104 +538,110 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>67.196293832911152</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>60.98935601669497</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>65.7774943674643</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>44.079998997300834</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>61.269311939869027</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>45.084756093184836</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>73.791394100058298</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>66.853933786882692</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>59.460260661403524</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>67.555092719732741</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>64.28974475450562</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>65.118672100261762</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>56.504916667876543</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>48.282428813418115</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>52.357973726813839</v>
       </c>
       <c r="AA3">
-        <v>71.122256025006124</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>68.166120291169733</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>58.493032370376255</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>75.19734258181694</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>53.269838093752895</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>63.44644829088314</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>54.155745321905577</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>70.047451391507224</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>93.146038382305889</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>60.344992575380743</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>65.568011182501834</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>70.07980577263433</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>70.480641863599658</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>46.029824040905524</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>70.254069984896105</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>58.039816122389119</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>55.757405493941121</v>
+        <v>0</v>
       </c>
       <c r="AS3">
         <v>63.013781318599328</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_length_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_length_GM_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>63.950224931653672</v>
-      </c>
-      <c r="C2">
-        <v>65.407306224678294</v>
+        <v>49.062128841075321</v>
       </c>
       <c r="D2">
-        <v>55.915425988687502</v>
+        <v>52.205685730939273</v>
       </c>
       <c r="E2">
-        <v>70.568530323260632</v>
+        <v>57.78619717019599</v>
       </c>
       <c r="F2">
         <v>44.830944827606345</v>
@@ -651,14 +643,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>67.196293863718751</v>
-      </c>
       <c r="C3">
-        <v>60.989356052740995</v>
+        <v>48.282428813418115</v>
+      </c>
+      <c r="D3">
+        <v>46.926664468428058</v>
       </c>
       <c r="E3">
-        <v>65.777494382887483</v>
+        <v>56.091780148283107</v>
       </c>
       <c r="F3">
         <v>44.079999015751447</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_length_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_length_GM_submax_1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>63.950224931653672</v>
+        <v>61.922882011607641</v>
       </c>
       <c r="C2">
-        <v>65.407306224678294</v>
+        <v>49.062128841075321</v>
       </c>
       <c r="D2">
-        <v>55.915425988687502</v>
+        <v>64.529399275861493</v>
       </c>
       <c r="E2">
-        <v>70.568530323260632</v>
+        <v>52.205685730939273</v>
       </c>
       <c r="F2">
         <v>44.830944827606345</v>
@@ -649,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>67.196293863718751</v>
-      </c>
-      <c r="C3">
-        <v>60.989356052740995</v>
+        <v>64.28974475450562</v>
+      </c>
+      <c r="D3">
+        <v>70.480641863599658</v>
       </c>
       <c r="E3">
-        <v>71.446277173775485</v>
+        <v>46.926664468428058</v>
       </c>
       <c r="F3">
         <v>44.079999015751447</v>

--- a/data_output/prism_passive/all_passive_out_licht_fas_length_GM_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_licht_fas_length_GM_submax_1.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>63.950224921238771</v>
+      </c>
+      <c r="C2">
+        <v>65.407306214738639</v>
+      </c>
+      <c r="D2">
+        <v>55.915425957918053</v>
+      </c>
+      <c r="E2">
+        <v>70.568530314463146</v>
+      </c>
+      <c r="F2">
+        <v>44.830944818074272</v>
+      </c>
+      <c r="G2">
+        <v>60.411517336595125</v>
+      </c>
+      <c r="H2">
+        <v>49.791028389746437</v>
+      </c>
+      <c r="I2">
+        <v>63.713411371958841</v>
+      </c>
+      <c r="J2">
+        <v>69.336164947728662</v>
+      </c>
+      <c r="K2">
+        <v>55.65387949809439</v>
+      </c>
+      <c r="L2">
+        <v>55.582433785628069</v>
+      </c>
+      <c r="N2">
         <v>61.922882011607641</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>49.062128841075321</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>63.130415374468761</v>
+      </c>
+      <c r="Q2">
+        <v>63.063852701031266</v>
+      </c>
+      <c r="V2">
+        <v>55.223430857817945</v>
+      </c>
+      <c r="W2">
+        <v>45.702233348967496</v>
+      </c>
+      <c r="X2">
+        <v>57.720288711791902</v>
+      </c>
+      <c r="AA2">
+        <v>70.737322610092292</v>
+      </c>
+      <c r="AB2">
+        <v>75.297148359959607</v>
+      </c>
+      <c r="AC2">
+        <v>51.912068120850975</v>
+      </c>
+      <c r="AD2">
+        <v>74.540443790468601</v>
+      </c>
+      <c r="AE2">
+        <v>51.430712887876354</v>
+      </c>
+      <c r="AF2">
+        <v>61.11825813858681</v>
+      </c>
+      <c r="AG2">
+        <v>52.230534244211427</v>
+      </c>
+      <c r="AH2">
+        <v>63.682380892209515</v>
+      </c>
+      <c r="AI2">
+        <v>77.789026723122987</v>
+      </c>
+      <c r="AJ2">
+        <v>57.154867939961285</v>
+      </c>
+      <c r="AK2">
+        <v>59.296522472686966</v>
+      </c>
+      <c r="AL2">
+        <v>70.345231157159759</v>
+      </c>
+      <c r="AM2">
         <v>64.529399275861493</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>52.205685730939273</v>
       </c>
-      <c r="F2">
-        <v>44.830944827606345</v>
-      </c>
-      <c r="G2">
-        <v>60.411517333832421</v>
-      </c>
-      <c r="H2">
-        <v>49.791028406746825</v>
-      </c>
-      <c r="I2">
-        <v>63.713411358749553</v>
-      </c>
-      <c r="J2">
-        <v>69.336164975061507</v>
-      </c>
-      <c r="K2">
-        <v>55.653879492042861</v>
-      </c>
-      <c r="L2">
-        <v>55.582433807320065</v>
-      </c>
-      <c r="N2">
-        <v>61.922882018622332</v>
-      </c>
-      <c r="O2">
-        <v>49.062128866552833</v>
-      </c>
-      <c r="P2">
-        <v>63.130415378303638</v>
-      </c>
-      <c r="Q2">
-        <v>63.063852734628441</v>
-      </c>
-      <c r="V2">
-        <v>55.223430893626826</v>
-      </c>
-      <c r="W2">
-        <v>45.702233364295907</v>
-      </c>
-      <c r="X2">
-        <v>57.720288733852314</v>
-      </c>
-      <c r="AA2">
-        <v>70.737322643729897</v>
-      </c>
-      <c r="AB2">
-        <v>75.297148419794254</v>
-      </c>
-      <c r="AC2">
-        <v>51.912068114460133</v>
-      </c>
-      <c r="AD2">
-        <v>74.540443855107583</v>
-      </c>
-      <c r="AE2">
-        <v>51.430712889144743</v>
-      </c>
-      <c r="AF2">
-        <v>61.118258145425784</v>
-      </c>
-      <c r="AG2">
-        <v>52.230534270559609</v>
-      </c>
-      <c r="AH2">
-        <v>63.682380936645103</v>
-      </c>
-      <c r="AI2">
-        <v>77.789026792126364</v>
-      </c>
-      <c r="AJ2">
-        <v>57.154867942706623</v>
-      </c>
-      <c r="AK2">
-        <v>59.29652250087792</v>
-      </c>
-      <c r="AL2">
-        <v>70.345231184938299</v>
-      </c>
-      <c r="AM2">
-        <v>64.529399332869843</v>
-      </c>
-      <c r="AN2">
-        <v>52.205685765330955</v>
-      </c>
       <c r="AO2">
-        <v>69.138586484134763</v>
+        <v>69.138586427331063</v>
       </c>
       <c r="AP2">
-        <v>71.19126098840151</v>
+        <v>71.191260971312929</v>
       </c>
       <c r="AQ2">
-        <v>57.786197217948647</v>
+        <v>57.78619717019599</v>
       </c>
       <c r="AR2">
-        <v>83.449730435584939</v>
+        <v>83.449730441151175</v>
       </c>
       <c r="AS2">
-        <v>68.976929908088351</v>
+        <v>68.976929851956498</v>
       </c>
       <c r="AU2">
-        <v>53.924009988864356</v>
+        <v>53.924009954462164</v>
       </c>
       <c r="AV2">
-        <v>53.405137672615403</v>
+        <v>53.405137608514437</v>
       </c>
       <c r="AW2">
-        <v>57.955862299955719</v>
+        <v>57.95586226255805</v>
       </c>
       <c r="AX2">
-        <v>66.992694165800458</v>
+        <v>66.992694138867478</v>
       </c>
       <c r="AY2">
-        <v>69.633492637096282</v>
+        <v>69.633492590170789</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -644,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>67.196293832911152</v>
+      </c>
+      <c r="C3">
+        <v>60.98935601669497</v>
+      </c>
+      <c r="E3">
+        <v>71.446277177633121</v>
+      </c>
+      <c r="F3">
+        <v>44.079998997300834</v>
+      </c>
+      <c r="G3">
+        <v>61.269311939869027</v>
+      </c>
+      <c r="H3">
+        <v>45.084756093184836</v>
+      </c>
+      <c r="J3">
+        <v>73.791394100058298</v>
+      </c>
+      <c r="K3">
+        <v>65.817952102326984</v>
+      </c>
+      <c r="L3">
+        <v>59.460260661403524</v>
+      </c>
+      <c r="M3">
+        <v>63.991194618017303</v>
+      </c>
+      <c r="N3">
         <v>64.28974475450562</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>65.118672100261762</v>
+      </c>
+      <c r="Q3">
+        <v>56.504916667876543</v>
+      </c>
+      <c r="R3">
+        <v>48.282428813418115</v>
+      </c>
+      <c r="W3">
+        <v>52.357973726813839</v>
+      </c>
+      <c r="AA3">
+        <v>71.122256025006124</v>
+      </c>
+      <c r="AB3">
+        <v>68.166120291169733</v>
+      </c>
+      <c r="AC3">
+        <v>58.493032370376255</v>
+      </c>
+      <c r="AD3">
+        <v>75.19734258181694</v>
+      </c>
+      <c r="AE3">
+        <v>53.269838093752895</v>
+      </c>
+      <c r="AF3">
+        <v>63.44644829088314</v>
+      </c>
+      <c r="AG3">
+        <v>54.155745321905577</v>
+      </c>
+      <c r="AH3">
+        <v>70.047451391507224</v>
+      </c>
+      <c r="AI3">
+        <v>70.171385505296954</v>
+      </c>
+      <c r="AJ3">
+        <v>60.344992575380743</v>
+      </c>
+      <c r="AK3">
+        <v>65.568011182501834</v>
+      </c>
+      <c r="AL3">
+        <v>70.07980577263433</v>
+      </c>
+      <c r="AM3">
         <v>70.480641863599658</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>46.926664468428058</v>
       </c>
-      <c r="F3">
-        <v>44.079999015751447</v>
-      </c>
-      <c r="G3">
-        <v>61.269311958956578</v>
-      </c>
-      <c r="H3">
-        <v>45.084756102336769</v>
-      </c>
-      <c r="J3">
-        <v>73.791394155100534</v>
-      </c>
-      <c r="K3">
-        <v>65.817952121430324</v>
-      </c>
-      <c r="L3">
-        <v>59.460260702889826</v>
-      </c>
-      <c r="M3">
-        <v>63.991102695668893</v>
-      </c>
-      <c r="N3">
-        <v>64.289744782999549</v>
-      </c>
-      <c r="P3">
-        <v>65.118672156609534</v>
-      </c>
-      <c r="Q3">
-        <v>56.504916694675828</v>
-      </c>
-      <c r="R3">
-        <v>48.282428870834721</v>
-      </c>
-      <c r="W3">
-        <v>52.357973774048759</v>
-      </c>
-      <c r="AA3">
-        <v>71.12225606540423</v>
-      </c>
-      <c r="AB3">
-        <v>68.16612032892229</v>
-      </c>
-      <c r="AC3">
-        <v>58.493032380348296</v>
-      </c>
-      <c r="AD3">
-        <v>75.197342605750833</v>
-      </c>
-      <c r="AE3">
-        <v>53.269838103045586</v>
-      </c>
-      <c r="AF3">
-        <v>63.446448317618611</v>
-      </c>
-      <c r="AG3">
-        <v>54.155745356883109</v>
-      </c>
-      <c r="AH3">
-        <v>70.047451437237598</v>
-      </c>
-      <c r="AI3">
-        <v>70.171385563903542</v>
-      </c>
-      <c r="AJ3">
-        <v>60.344992611121903</v>
-      </c>
-      <c r="AK3">
-        <v>65.568011209672846</v>
-      </c>
-      <c r="AL3">
-        <v>70.079805825395695</v>
-      </c>
-      <c r="AM3">
-        <v>70.480641935074715</v>
-      </c>
-      <c r="AN3">
-        <v>46.926664497301196</v>
-      </c>
       <c r="AO3">
-        <v>70.254070013499145</v>
+        <v>70.254069984896105</v>
       </c>
       <c r="AP3">
-        <v>58.039816154762732</v>
+        <v>58.039816122389119</v>
       </c>
       <c r="AQ3">
-        <v>56.091780161392521</v>
+        <v>56.091780148283107</v>
       </c>
       <c r="AS3">
-        <v>63.013781331034892</v>
+        <v>63.013781318599328</v>
       </c>
       <c r="AT3">
-        <v>67.563144428205689</v>
+        <v>67.563144389580415</v>
       </c>
       <c r="AU3">
-        <v>58.671453048365727</v>
+        <v>58.67145302285531</v>
       </c>
       <c r="AV3">
-        <v>51.235931341601557</v>
+        <v>51.235931311670036</v>
       </c>
       <c r="AW3">
-        <v>55.460487109311757</v>
+        <v>55.46048707951266</v>
       </c>
       <c r="AX3">
-        <v>62.588872688402432</v>
+        <v>62.588872653167243</v>
       </c>
       <c r="AY3">
-        <v>77.09001427077051</v>
+        <v>77.090014224509488</v>
       </c>
     </row>
   </sheetData>
